--- a/biology/Zoologie/Faisanderie/Faisanderie.xlsx
+++ b/biology/Zoologie/Faisanderie/Faisanderie.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Une faisanderie est un terrain ou un domaine où sont élevés des faisans pour la chasse à tir. Par extension, il peut s'agir d'une volière ou d'un pavillon près d'un château où sont engraissés des faisans d'élevage pour la table.
 Ce terme apparaît au XVIe siècle avec le développement de ce sport dans l'aristocratie européenne. Nombre de châtelains au XVIIIe siècle se font construire une faisanderie dans leur domaine, ou nomment ainsi leur pavillon de plaisance servant de rendez-vous de chasse, près du château principal.
@@ -512,7 +524,9 @@
           <t>Toponymie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Château de la Fasanerie (Hesse, Allemagne)
 Château de la Faisanderie (Saxe, Allemagne)
